--- a/biology/Botanique/Stemona_sessilifolia/Stemona_sessilifolia.xlsx
+++ b/biology/Botanique/Stemona_sessilifolia/Stemona_sessilifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stemona sessilifolia est une espèce de plantes grimpantes tubéreuses de la famille des Stemonaceae, originaire d'Extrême-Orient.
 L'épithète spécifique, sessilifolia, rappelle le caractère sessile des feuilles insérées directement sur la tige.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante a une tige volubile qui peut atteindre 70 cm de long.
 Les racines, tubérisées, forment un faisceau dressé hors du sol, donnant l'impression que la plante se tient sur des échasses.
@@ -545,7 +559,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est spontanée en Extrême-Orient : Chine (Anhui, Fujian, Hubei, Jiangxi, Zhejiang) et Japon.
 </t>
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alimentation : les racines sont consommées comme légumes, crues ou sautées, dans certaines régions de Chine.
 Plante médicinale : cette espèce fait partie de la pharmacopée traditionnelle chinoise.
@@ -609,7 +627,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roxburghia sessilifolia Miq.</t>
         </is>
